--- a/pred_ohlcv/54_21/2020-01-26 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 LTC ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>-1.47475515</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-5.97475515</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>60.76384485000001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>62.32764485000001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-40.09065515</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-38.52195515</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-38.53915515</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-35.41705515</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-35.41705515</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-25.41705515</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-17.06975515</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-19.75725515</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>12.15654485000001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-32.86165514999999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-39.70325514999999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-32.45515514999999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>7.544844850000011</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>7.544844850000011</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>7.494144850000011</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2.020855149999989</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2.943955149999989</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-4.51505514999999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-6.51505514999999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-6.51505514999999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-8.089955149999989</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-10.64075514999999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-9.14075514999999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-94.23425515</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-88.08935514999999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-86.12265514999999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-143.13275515</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-147.13275515</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-148.76015515</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-114.86015515</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-116.56015515</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-125.56015515</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-115.77215515</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-115.77215515</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-112.88115515</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-112.27015515</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-115.66845515</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-111.66845515</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-111.66845515</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-114.10915515</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-199.74665515</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1165.4967148</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1165.2813148</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1165.2813148</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1165.0913148</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1165.0913148</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1162.3013148</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1159.4335148</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1039.9390148</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1062.9387148</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1058.4387148</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1101.9848148</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1099.7512148</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1086.6947148</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1121.2158148</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1004.57235578</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1004.57235578</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1004.57235578</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1047.58585578</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1042.536155779999</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1779.432396909998</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1797.930996909998</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1797.930996909998</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1799.819796909998</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 LTC ohlcv.xlsx
@@ -1588,7 +1588,7 @@
         <v>-5.97475515</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>60.76384485000001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>62.32764485000001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-40.09065515</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-38.52195515</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-38.53915515</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-35.41705515</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-35.41705515</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-25.41705515</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-17.06975515</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-19.75725515</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-18.19345514999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>12.15654485000001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-32.86165514999999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-39.70325514999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-32.45515514999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>7.544844850000011</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>7.544844850000011</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>7.494144850000011</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2.020855149999989</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2.943955149999989</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-4.51505514999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-6.51505514999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-6.51505514999999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-8.089955149999989</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-10.64075514999999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-9.14075514999999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-94.23425515</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-88.08935514999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-116.56015515</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-125.56015515</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-114.10915515</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1165.4967148</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1165.2813148</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1165.2813148</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1165.0913148</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1165.0913148</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1162.3013148</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1159.4335148</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1039.9390148</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1064.1525148</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1062.9387148</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1058.4387148</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1101.9848148</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1099.7512148</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1086.6947148</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1121.2158148</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1004.57235578</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1004.57235578</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1004.57235578</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1047.58585578</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1042.536155779999</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1797.930996909998</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1797.930996909998</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1799.819796909998</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1785.352022539998</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
